--- a/biology/Botanique/Tancrea_cornuformis/Tancrea_cornuformis.xlsx
+++ b/biology/Botanique/Tancrea_cornuformis/Tancrea_cornuformis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tancrea cornuformis Stockmans serait une espèce éteinte de fougères primitives appartenant à une famille indéterminée. Elle a été trouvée dans des sédiments du Dévonien supérieur (Famennien) de Belgique, datant d'il y a environ entre 365 et 361 Ma (millions d'années). Ses fossiles sont conservés dans les collections du musée de l'Institut royal des sciences naturelles de Belgique[2].
-La validité de ce taxon, découvert en 1936 par François Stockmans puis décrit en 1948, n'est pas certaine[3],[4].
-Le nom générique Tancrea est dédié au lieu-dit de sa découverte, Tancré (hameau  de Froibermont, commune d'Olne en Belgique), seul endroit au monde où il a été trouvé[1],[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tancrea cornuformis Stockmans serait une espèce éteinte de fougères primitives appartenant à une famille indéterminée. Elle a été trouvée dans des sédiments du Dévonien supérieur (Famennien) de Belgique, datant d'il y a environ entre 365 et 361 Ma (millions d'années). Ses fossiles sont conservés dans les collections du musée de l'Institut royal des sciences naturelles de Belgique.
+La validité de ce taxon, découvert en 1936 par François Stockmans puis décrit en 1948, n'est pas certaine,.
+Le nom générique Tancrea est dédié au lieu-dit de sa découverte, Tancré (hameau  de Froibermont, commune d'Olne en Belgique), seul endroit au monde où il a été trouvé,.
 </t>
         </is>
       </c>
